--- a/data/trans_orig/P78DS3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53885C0B-21CF-4E9E-A404-AB3A1EC74668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C336815-4DAB-4D78-9E4A-439768F4D6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDC6B5E4-0CF6-462E-A2C6-CD599F163E4D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09F9D1C8-25CE-40B4-9A92-9009EBC80FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="110">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 3 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -149,7 +149,7 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -158,214 +158,208 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,52%</t>
+    <t>99,55%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -783,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1A0077-5801-4605-AA17-45EE9CF0876D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D4EE4F-8820-4AAE-B71F-33734295CB52}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2003,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2012,13 +2006,13 @@
         <v>5157</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,7 +2048,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2069,7 +2063,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2114,13 +2108,13 @@
         <v>696</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2314,13 @@
         <v>2800</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2392,13 +2386,13 @@
         <v>1970</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -2509,13 +2503,13 @@
         <v>840</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -2524,13 +2518,13 @@
         <v>840</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,7 +2560,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2617,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2647,10 +2641,10 @@
         <v>697149</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>23</v>
@@ -2662,13 +2656,13 @@
         <v>832004</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M38" s="7">
         <v>1631</v>
@@ -2677,13 +2671,13 @@
         <v>1529154</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2733,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -2772,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -2787,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -2838,7 +2832,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,7 +3072,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3093,7 +3087,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,10 +3120,10 @@
         <v>65</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M47" s="7">
         <v>2438</v>
@@ -3141,10 +3135,10 @@
         <v>34</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3206,13 @@
         <v>3039</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
@@ -3233,7 +3227,7 @@
         <v>42</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="M49" s="7">
         <v>7</v>
@@ -3242,13 +3236,13 @@
         <v>7173</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -3293,13 +3287,13 @@
         <v>881</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -3344,7 +3338,7 @@
         <v>3652</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
@@ -3371,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H52" s="7">
         <v>3</v>
@@ -3380,13 +3374,13 @@
         <v>2262</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="M52" s="7">
         <v>5</v>
@@ -3398,10 +3392,10 @@
         <v>39</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,7 +3416,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
@@ -3437,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -3452,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3467,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -3497,13 +3491,13 @@
         <v>696</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,7 +3518,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -3539,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -3548,13 +3542,13 @@
         <v>729</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3563,13 @@
         <v>3264748</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="H56" s="7">
         <v>5114</v>
@@ -3587,10 +3581,10 @@
         <v>68</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M56" s="7">
         <v>8356</v>
@@ -3599,13 +3593,13 @@
         <v>6909872</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3655,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS3_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C336815-4DAB-4D78-9E4A-439768F4D6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F6C96D-A01D-44E3-8643-5CAFD863C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09F9D1C8-25CE-40B4-9A92-9009EBC80FA2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1F6A704-6D82-4477-AA9A-04AFCA60F77F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -122,7 +122,7 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -143,7 +143,7 @@
     <t>99,88%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -245,7 +245,7 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -777,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D4EE4F-8820-4AAE-B71F-33734295CB52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F906D41B-B783-47AA-81FE-004607635040}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
